--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.97</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>91.95</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.90</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.70</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>8.11</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.55</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>91.05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.88</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.25</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.92</v>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.45</v>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.22</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.25</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.92</v>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.45</v>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2649,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-泛微网络.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,395 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004450</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实前沿科技沪港深股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6968</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7340</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6693</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4442</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160105</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方积极配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3469</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0877</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0803</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003054</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
+      <c r="D7" t="n">
+        <v>4.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -854,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -905,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>000751</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>嘉实新兴产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.60</t>
+          <t>81.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5289</t>
+          <t>2.2043</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -943,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4012</t>
+          <t>1.3879</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -981,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3858</t>
+          <t>0.8390</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1019,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>005763</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>中欧电子信息产业沪港深股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0791</t>
+          <t>0.4460</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1057,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>012447</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.2175</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1095,35 +829,187 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>010016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>华夏科技前沿6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.1852</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1138,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1045,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1199,26 +1085,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.11</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3429</t>
+          <t>1.2945</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1227,36 +1113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>010016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>华夏科技前沿6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2540</t>
+          <t>0.6362</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1265,32 +1151,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>002980</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>华夏创新前沿股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>21.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.26</t>
+          <t>90.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2189</t>
+          <t>0.5448</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1303,36 +1189,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>005763</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>中欧电子信息产业沪港深股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0695</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1341,32 +1227,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.3701</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1379,36 +1265,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>012447</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>83.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.2739</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1417,36 +1303,340 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>001759</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>嘉实成长增强灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.2082</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,7 +2031,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1881,26 +2071,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>30.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2945</t>
+          <t>1.3429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1909,36 +2099,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010016</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏科技前沿6个月定期开放混合A</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6362</t>
+          <t>0.2540</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1947,32 +2137,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002980</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏创新前沿股票</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.28</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>77.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5448</t>
+          <t>0.2189</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1985,36 +2175,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4768</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2023,32 +2213,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3701</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2061,36 +2251,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012447</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏互联网龙头混合型证券投资基金A</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2739</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2099,340 +2289,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001759</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实成长增强灵活配置混合</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2082</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012448</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏互联网龙头混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0988</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏科技前沿6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0686</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011500</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>450007</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国富成长动力混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003054</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,7 +2353,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2497,36 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000751</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实新兴产业股票</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.04</t>
+          <t>32.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2043</t>
+          <t>1.5289</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2535,32 +2421,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>77.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3879</t>
+          <t>0.4012</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2573,32 +2459,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8390</t>
+          <t>0.3858</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2611,36 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4460</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2649,32 +2535,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012447</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏互联网龙头混合型证券投资基金A</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2175</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2687,187 +2573,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010016</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏科技前沿6个月定期开放混合A</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1852</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001759</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实成长增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012448</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏互联网龙头混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0838</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010017</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏科技前沿6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0569</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013903</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰君安信息行业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2882,128 +2616,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>